--- a/biology/Zoologie/Chinattus_validus/Chinattus_validus.xlsx
+++ b/biology/Zoologie/Chinattus_validus/Chinattus_validus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chinattus validus est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chinattus validus est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Chine, au Viêt Nam, en Inde, au Népal et au Bhoutan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Chine, au Viêt Nam, en Inde, au Népal et au Bhoutan.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 3,35 mm[2].
-La carapace de la femelle décrite par Jastrzębski et Patoleta en 2014 mesure 1,88 mm de long sur 1,59 mm et l'abdomen 2,93 mm de long sur 2,32 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 3,35 mm.
+La carapace de la femelle décrite par Jastrzębski et Patoleta en 2014 mesure 1,88 mm de long sur 1,59 mm et l'abdomen 2,93 mm de long sur 2,32 mm.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Habrocestoides validus par Xie, Peng et Kim en 1993. Elle est placée dans le genre Chinattus par Logunov en 1999[4].
-Habrocestum emanasakgrensis[5] a été placée en synonymie par Jose, Caleb et Sudhikumar en 2024[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Habrocestoides validus par Xie, Peng et Kim en 1993. Elle est placée dans le genre Chinattus par Logunov en 1999.
+Habrocestum emanasakgrensis a été placée en synonymie par Jose, Caleb et Sudhikumar en 2024.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Xie, Peng &amp; Kim, 1993 : « Three new species of the genus Habrocestoides from China (Araneae: Salticidae). » Korean Arachnology, vol. 9, no 1/2, p. 23-29.</t>
         </is>
